--- a/biology/Botanique/Duroia_hirsuta/Duroia_hirsuta.xlsx
+++ b/biology/Botanique/Duroia_hirsuta/Duroia_hirsuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duroia hirsuta est une espèce d'arbres myrmécophytesMyrmécophyte de la forêt amazonienne. C'est l'une des 37 espèces de Duroia, qui sont des arbustes ou des arbres formant la canopée de la famille des Rubiaceae, favorisant les fourmis (myrmécophilie). Ils s’étendent de l'Amérique centrale jusqu'au Nord du Mexique, le bassin amazonien, le plateau des Guyanes, la côte atlantique du Brésil et le plateau brésilien.
 Un certain nombre d'espèces du genre Duroia, voire toutes, sont capables d'interagir biochimiquement, inhibant alors les plantes voisines. L'analyse des racines de Duroia hirsuta a permis de découvrir un puissant inhibiteur de croissance des plantes, un lactone iridoïde tétracyclique appelé plumericin en anglais, et un autre lactone iridoïde appelé duroin.
@@ -513,11 +525,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Duroia hirsuta (Poepp.) K.Schum.[1].
-L'espèce a été initialement classée dans le genre Amaioua sous le basionyme Amaioua hirsuta Poepp.[1].
-Duroia hirsuta a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Duroia hirsuta (Poepp.) K.Schum..
+L'espèce a été initialement classée dans le genre Amaioua sous le basionyme Amaioua hirsuta Poepp..
+Duroia hirsuta a pour synonymes :
 Amaioua hirsuta Poepp.
 Duroia spraguei Wernham
 Schachtia dioica H.Karst.</t>
